--- a/project/ECE2206 Project State Transition Table.xlsx
+++ b/project/ECE2206 Project State Transition Table.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apple\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477C953-1866-4BFE-A73A-E0A93A00DCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{4477C953-1866-4BFE-A73A-E0A93A00DCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFFDAC07-1929-46F5-9F60-D858CA9BEBCD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Excitation Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Input Encoder Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="38">
+  <si>
+    <t>currentstate</t>
+  </si>
   <si>
     <t>A</t>
   </si>
@@ -42,6 +49,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>buttoninput</t>
   </si>
   <si>
     <t>nextstate</t>
@@ -125,17 +135,29 @@
     <t>counterfalsetwo5</t>
   </si>
   <si>
-    <t>currentstate</t>
+    <t>O4</t>
   </si>
   <si>
-    <t>buttoninput</t>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O0</t>
+  </si>
+  <si>
+    <t>others are unused</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -378,24 +400,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7981C98C-71A0-4A5A-A277-DA7CC240433A}" name="Table1" displayName="Table1" ref="A1:I193" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7981C98C-71A0-4A5A-A277-DA7CC240433A}" name="Table1" displayName="Table1" ref="A1:I193" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I193" xr:uid="{7981C98C-71A0-4A5A-A277-DA7CC240433A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F5B2F9D6-6A41-40B2-A4B6-E1E9C802737F}" name="currentstate" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F5B2F9D6-6A41-40B2-A4B6-E1E9C802737F}" name="currentstate" dataDxfId="8">
       <calculatedColumnFormula>$A$188</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF5EEA1F-07F6-43EB-9C4A-B286CAEC7421}" name="A" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B16452DF-1FEB-4E3D-A447-DF782019FB0E}" name="B" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{9691D0D4-7C87-4108-B887-9C68DF938BC9}" name="C" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{53C482A8-0DF5-48EF-9F69-692A1FD2FE63}" name="buttoninput" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{803F2937-23E6-4EF4-A341-0519A11B0E2A}" name="nextstate" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{9B53F0BE-5AE2-4C2E-87DE-95B970582423}" name="nextA" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{BF5EEA1F-07F6-43EB-9C4A-B286CAEC7421}" name="A" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B16452DF-1FEB-4E3D-A447-DF782019FB0E}" name="B" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9691D0D4-7C87-4108-B887-9C68DF938BC9}" name="C" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{53C482A8-0DF5-48EF-9F69-692A1FD2FE63}" name="buttoninput" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{803F2937-23E6-4EF4-A341-0519A11B0E2A}" name="nextstate" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9B53F0BE-5AE2-4C2E-87DE-95B970582423}" name="nextA" dataDxfId="2">
       <calculatedColumnFormula>B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{647705F5-B5B3-484F-BDBD-6EF8ADDF1623}" name="nextB" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{647705F5-B5B3-484F-BDBD-6EF8ADDF1623}" name="nextB" dataDxfId="1">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B4EE8777-EAEE-4C81-BB14-FEBAE508145D}" name="nextC" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{B4EE8777-EAEE-4C81-BB14-FEBAE508145D}" name="nextC" dataDxfId="0">
       <calculatedColumnFormula>D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -606,51 +628,51 @@
   </sheetPr>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" customWidth="1"/>
-    <col min="6" max="6" width="16.1328125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -662,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="0">B2</f>
@@ -680,9 +702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -694,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:I3" si="1">B3</f>
@@ -712,9 +734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -726,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:I4" si="2">B4</f>
@@ -744,9 +766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -758,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:I5" si="3">B5</f>
@@ -776,9 +798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -790,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:I6" si="4">B6</f>
@@ -808,9 +830,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -822,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ref="G7:I7" si="5">B7</f>
@@ -840,9 +862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -854,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8:I8" si="6">B8</f>
@@ -872,9 +894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -886,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:I9" si="7">B9</f>
@@ -904,9 +926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -918,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10:I10" si="8">B10</f>
@@ -936,9 +958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -950,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:I11" si="9">B11</f>
@@ -968,24 +990,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12:I12" si="10">B12</f>
@@ -1000,9 +1022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1014,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13:I13" si="11">B13</f>
@@ -1032,9 +1054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1046,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:I14" si="12">B14</f>
@@ -1064,9 +1086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1078,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ref="G15:I15" si="13">B15</f>
@@ -1096,9 +1118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1110,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ref="G16:I16" si="14">B16</f>
@@ -1128,9 +1150,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1142,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:I17" si="15">B17</f>
@@ -1160,9 +1182,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1174,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ref="G18:I18" si="16">B18</f>
@@ -1192,24 +1214,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19:I19" si="17">B19</f>
@@ -1224,9 +1246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1238,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:I20" si="18">B20</f>
@@ -1256,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="str">
         <f t="shared" ref="A21:A37" si="19">$A$20</f>
         <v>counter1</v>
@@ -1271,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:I21" si="20">B21</f>
@@ -1289,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1304,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ref="G22:I22" si="21">B22</f>
@@ -1322,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1337,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:I23" si="22">B23</f>
@@ -1355,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1370,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ref="G24:I24" si="23">B24</f>
@@ -1388,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1403,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ref="G25:I25" si="24">B25</f>
@@ -1421,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1436,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ref="G26:I26" si="25">B26</f>
@@ -1454,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1469,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" ref="G27:I27" si="26">B27</f>
@@ -1487,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1502,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ref="G28:I28" si="27">B28</f>
@@ -1520,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1535,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" ref="G29:I29" si="28">B29</f>
@@ -1553,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1568,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" ref="G30:I30" si="29">B30</f>
@@ -1586,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1601,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ref="G31:I31" si="30">B31</f>
@@ -1619,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1634,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ref="G32:I32" si="31">B32</f>
@@ -1652,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1667,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" ref="G33:I33" si="32">B33</f>
@@ -1685,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1700,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" ref="G34:I34" si="33">B34</f>
@@ -1718,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1733,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ref="G35:I35" si="34">B35</f>
@@ -1751,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1766,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ref="G36:I36" si="35">B36</f>
@@ -1784,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="str">
         <f t="shared" si="19"/>
         <v>counter1</v>
@@ -1799,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ref="G37:I37" si="36">B37</f>
@@ -1817,9 +1839,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -1831,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ref="G38:I38" si="37">B38</f>
@@ -1849,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="str">
         <f t="shared" ref="A39:A55" si="38">$A$38</f>
         <v>counter2</v>
@@ -1864,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" ref="G39:I39" si="39">B39</f>
@@ -1882,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -1897,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ref="G40:I40" si="40">B40</f>
@@ -1915,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -1930,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ref="G41:I41" si="41">B41</f>
@@ -1948,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -1963,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ref="G42:I42" si="42">B42</f>
@@ -1981,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -1996,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ref="G43:I43" si="43">B43</f>
@@ -2014,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2029,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" ref="G44:I44" si="44">B44</f>
@@ -2047,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2062,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ref="G45:I45" si="45">B45</f>
@@ -2080,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2095,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:I46" si="46">B46</f>
@@ -2113,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2128,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ref="G47:I47" si="47">B47</f>
@@ -2146,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2161,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" ref="G48:I48" si="48">B48</f>
@@ -2179,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2194,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" ref="G49:I49" si="49">B49</f>
@@ -2212,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2227,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" ref="G50:I50" si="50">B50</f>
@@ -2245,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2260,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" ref="G51:I51" si="51">B51</f>
@@ -2278,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2293,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" ref="G52:I52" si="52">B52</f>
@@ -2311,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2326,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" ref="G53:I53" si="53">B53</f>
@@ -2344,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2359,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" ref="G54:I54" si="54">B54</f>
@@ -2377,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="str">
         <f t="shared" si="38"/>
         <v>counter2</v>
@@ -2392,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" ref="G55:I55" si="55">B55</f>
@@ -2410,9 +2432,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -2424,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" ref="G56:I56" si="56">B56</f>
@@ -2442,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="str">
         <f t="shared" ref="A57:A73" si="57">$A$56</f>
         <v>counter3</v>
@@ -2457,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" ref="G57:I57" si="58">B57</f>
@@ -2475,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2490,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" ref="G58:I58" si="59">B58</f>
@@ -2508,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2523,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" ref="G59:I59" si="60">B59</f>
@@ -2541,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2556,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" ref="G60:I60" si="61">B60</f>
@@ -2574,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2589,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" ref="G61:I61" si="62">B61</f>
@@ -2607,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2622,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" ref="G62:I62" si="63">B62</f>
@@ -2640,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2655,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" ref="G63:I63" si="64">B63</f>
@@ -2673,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2688,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" ref="G64:I64" si="65">B64</f>
@@ -2706,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2721,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" ref="G65:I65" si="66">B65</f>
@@ -2739,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2754,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" ref="G66:I66" si="67">B66</f>
@@ -2772,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2787,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:I67" si="68">B67</f>
@@ -2805,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2820,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" ref="G68:I68" si="69">B68</f>
@@ -2838,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2853,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" ref="G69:I69" si="70">B69</f>
@@ -2871,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2886,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" ref="G70:I70" si="71">B70</f>
@@ -2904,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2919,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" ref="G71:I71" si="72">B71</f>
@@ -2937,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2952,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" ref="G72:I72" si="73">B72</f>
@@ -2970,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="str">
         <f t="shared" si="57"/>
         <v>counter3</v>
@@ -2985,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" ref="G73:I73" si="74">B73</f>
@@ -3003,9 +3025,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -3017,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" ref="G74:I74" si="75">B74</f>
@@ -3035,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="str">
         <f t="shared" ref="A75:A91" si="76">$A$74</f>
         <v>counter4</v>
@@ -3050,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" ref="G75:I75" si="77">B75</f>
@@ -3068,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3083,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" ref="G76:I76" si="78">B76</f>
@@ -3101,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3116,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" ref="G77:I77" si="79">B77</f>
@@ -3134,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3149,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" ref="G78:I78" si="80">B78</f>
@@ -3167,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3182,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" ref="G79:I79" si="81">B79</f>
@@ -3200,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3215,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" ref="G80:I80" si="82">B80</f>
@@ -3233,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3248,10 +3270,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" ref="G81:I81" si="83">B81</f>
@@ -3266,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3281,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" ref="G82:I82" si="84">B82</f>
@@ -3299,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3314,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" ref="G83:I83" si="85">B83</f>
@@ -3332,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3347,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" ref="G84:I84" si="86">B84</f>
@@ -3365,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3380,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" ref="G85:I85" si="87">B85</f>
@@ -3398,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3413,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" ref="G86:I86" si="88">B86</f>
@@ -3431,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3446,10 +3468,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" ref="G87:I87" si="89">B87</f>
@@ -3464,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3479,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" ref="G88:I88" si="90">B88</f>
@@ -3497,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3512,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" ref="G89:I89" si="91">B89</f>
@@ -3530,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3545,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" ref="G90:I90" si="92">B90</f>
@@ -3563,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="str">
         <f t="shared" si="76"/>
         <v>counter4</v>
@@ -3578,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" ref="G91:I91" si="93">B91</f>
@@ -3596,9 +3618,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3610,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" ref="G92:I92" si="94">B92</f>
@@ -3628,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="str">
         <f t="shared" ref="A93:A109" si="95">$A$92</f>
         <v>counter5</v>
@@ -3643,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" ref="G93:I93" si="96">B93</f>
@@ -3661,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3676,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" ref="G94:I94" si="97">B94</f>
@@ -3694,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3709,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" ref="G95:I95" si="98">B95</f>
@@ -3727,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3742,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" ref="G96:I96" si="99">B96</f>
@@ -3760,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3775,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -3791,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3806,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" ref="G98:I98" si="100">B98</f>
@@ -3824,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3839,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
@@ -3854,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3869,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -3884,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3899,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
@@ -3914,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3929,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
@@ -3944,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3959,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -3974,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -3989,10 +4011,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" ref="G104:I104" si="101">B104</f>
@@ -4007,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -4022,10 +4044,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" ref="G105:I105" si="102">B105</f>
@@ -4040,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -4055,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" ref="G106:I106" si="103">B106</f>
@@ -4073,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -4088,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" ref="G107:I107" si="104">B107</f>
@@ -4106,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -4121,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" ref="G108:I108" si="105">B108</f>
@@ -4139,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="str">
         <f t="shared" si="95"/>
         <v>counter5</v>
@@ -4154,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" ref="G109:G193" si="106">B109</f>
@@ -4170,24 +4192,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="1">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="106"/>
@@ -4202,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="str">
         <f t="shared" ref="A111:A121" si="108">$A$110</f>
         <v>counterfalse1</v>
@@ -4217,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="106"/>
@@ -4235,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4250,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="106"/>
@@ -4268,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4283,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="106"/>
@@ -4301,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4316,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="106"/>
@@ -4334,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4349,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="106"/>
@@ -4367,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4382,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G116" s="1">
         <f t="shared" si="106"/>
@@ -4400,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4415,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" si="106"/>
@@ -4433,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4448,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G118" s="1">
         <f t="shared" si="106"/>
@@ -4466,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4481,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G119" s="1">
         <f t="shared" si="106"/>
@@ -4499,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4514,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G120" s="1">
         <f t="shared" si="106"/>
@@ -4532,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="str">
         <f t="shared" si="108"/>
         <v>counterfalse1</v>
@@ -4547,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" si="106"/>
@@ -4565,9 +4587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
@@ -4579,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G122" s="1">
         <f t="shared" si="106"/>
@@ -4597,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="str">
         <f t="shared" ref="A123:A133" si="121">$A$122</f>
         <v>counterfalse2</v>
@@ -4612,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G123" s="1">
         <f t="shared" si="106"/>
@@ -4630,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4645,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G124" s="1">
         <f t="shared" si="106"/>
@@ -4663,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4678,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G125" s="1">
         <f t="shared" si="106"/>
@@ -4696,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4711,10 +4733,10 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G126" s="1">
         <f t="shared" si="106"/>
@@ -4729,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4744,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G127" s="1">
         <f t="shared" si="106"/>
@@ -4762,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4777,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G128" s="1">
         <f t="shared" si="106"/>
@@ -4795,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4810,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G129" s="1">
         <f t="shared" si="106"/>
@@ -4828,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4843,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G130" s="1">
         <f t="shared" si="106"/>
@@ -4861,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4876,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G131" s="1">
         <f t="shared" si="106"/>
@@ -4894,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4909,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G132" s="1">
         <f t="shared" si="106"/>
@@ -4927,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="str">
         <f t="shared" si="121"/>
         <v>counterfalse2</v>
@@ -4942,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G133" s="1">
         <f t="shared" si="106"/>
@@ -4960,9 +4982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -4974,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G134" s="1">
         <f t="shared" si="106"/>
@@ -4992,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="str">
         <f t="shared" ref="A135:A145" si="134">$A$134</f>
         <v>counterfalse3</v>
@@ -5007,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G135" s="1">
         <f t="shared" si="106"/>
@@ -5025,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5040,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G136" s="1">
         <f t="shared" si="106"/>
@@ -5058,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5073,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G137" s="1">
         <f t="shared" si="106"/>
@@ -5091,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5106,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G138" s="1">
         <f t="shared" si="106"/>
@@ -5124,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5139,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G139" s="1">
         <f t="shared" si="106"/>
@@ -5157,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5172,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G140" s="1">
         <f t="shared" si="106"/>
@@ -5190,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5205,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G141" s="1">
         <f t="shared" si="106"/>
@@ -5223,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5238,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G142" s="1">
         <f t="shared" si="106"/>
@@ -5256,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5271,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G143" s="1">
         <f t="shared" si="106"/>
@@ -5289,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5304,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G144" s="1">
         <f t="shared" si="106"/>
@@ -5322,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="str">
         <f t="shared" si="134"/>
         <v>counterfalse3</v>
@@ -5337,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G145" s="1">
         <f t="shared" si="106"/>
@@ -5355,9 +5377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -5369,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G146" s="1">
         <f t="shared" si="106"/>
@@ -5387,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="str">
         <f t="shared" ref="A147:A157" si="147">$A$146</f>
         <v>counterfalse4</v>
@@ -5402,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G147" s="1">
         <f t="shared" si="106"/>
@@ -5420,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5435,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G148" s="1">
         <f t="shared" si="106"/>
@@ -5453,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5468,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G149" s="1">
         <f t="shared" si="106"/>
@@ -5486,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5501,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G150" s="1">
         <f t="shared" si="106"/>
@@ -5519,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5534,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G151" s="1">
         <f t="shared" si="106"/>
@@ -5552,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5567,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G152" s="1">
         <f t="shared" si="106"/>
@@ -5585,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5600,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G153" s="1">
         <f t="shared" si="106"/>
@@ -5618,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5633,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G154" s="1">
         <f t="shared" si="106"/>
@@ -5651,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5666,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G155" s="1">
         <f t="shared" si="106"/>
@@ -5684,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5699,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G156" s="1">
         <f t="shared" si="106"/>
@@ -5717,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="str">
         <f t="shared" si="147"/>
         <v>counterfalse4</v>
@@ -5732,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G157" s="1">
         <f t="shared" si="106"/>
@@ -5750,9 +5772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B158" s="1">
         <v>1</v>
@@ -5764,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G158" s="1">
         <f t="shared" si="106"/>
@@ -5782,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="str">
         <f t="shared" ref="A159:A169" si="160">$A$158</f>
         <v>counterfalse5</v>
@@ -5797,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G159" s="1">
         <f t="shared" si="106"/>
@@ -5815,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -5830,10 +5852,10 @@
         <v>0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G160" s="1">
         <f t="shared" si="106"/>
@@ -5848,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -5863,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G161" s="1">
         <f t="shared" si="106"/>
@@ -5881,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -5896,10 +5918,10 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G162" s="1">
         <f t="shared" si="106"/>
@@ -5914,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -5929,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G163" s="1">
         <f t="shared" si="106"/>
@@ -5947,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -5962,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G164" s="1">
         <f t="shared" si="106"/>
@@ -5980,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -5995,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G165" s="1">
         <f t="shared" si="106"/>
@@ -6013,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -6028,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G166" s="1">
         <f t="shared" si="106"/>
@@ -6046,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -6061,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G167" s="1">
         <f t="shared" si="106"/>
@@ -6079,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -6094,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G168" s="1">
         <f t="shared" si="106"/>
@@ -6112,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="str">
         <f t="shared" si="160"/>
         <v>counterfalse5</v>
@@ -6127,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G169" s="1">
         <f t="shared" si="106"/>
@@ -6145,9 +6167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -6159,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G170" s="1">
         <f t="shared" si="106"/>
@@ -6177,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="str">
         <f t="shared" ref="A171:A175" si="173">$A$170</f>
         <v>counterfalsetwo2</v>
@@ -6192,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G171" s="1">
         <f t="shared" si="106"/>
@@ -6210,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="str">
         <f t="shared" si="173"/>
         <v>counterfalsetwo2</v>
@@ -6225,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G172" s="1">
         <f t="shared" si="106"/>
@@ -6243,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="str">
         <f t="shared" si="173"/>
         <v>counterfalsetwo2</v>
@@ -6258,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G173" s="1">
         <f t="shared" si="106"/>
@@ -6276,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="str">
         <f t="shared" si="173"/>
         <v>counterfalsetwo2</v>
@@ -6291,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G174" s="1">
         <f t="shared" si="106"/>
@@ -6309,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="str">
         <f t="shared" si="173"/>
         <v>counterfalsetwo2</v>
@@ -6324,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G175" s="1">
         <f t="shared" si="106"/>
@@ -6342,9 +6364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -6356,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G176" s="1">
         <f t="shared" si="106"/>
@@ -6374,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="str">
         <f t="shared" ref="A177:A181" si="180">$A$176</f>
         <v>counterfalsetwo3</v>
@@ -6389,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G177" s="1">
         <f t="shared" si="106"/>
@@ -6407,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="str">
         <f t="shared" si="180"/>
         <v>counterfalsetwo3</v>
@@ -6422,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G178" s="1">
         <f t="shared" si="106"/>
@@ -6440,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="str">
         <f t="shared" si="180"/>
         <v>counterfalsetwo3</v>
@@ -6455,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G179" s="1">
         <f t="shared" si="106"/>
@@ -6473,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="str">
         <f t="shared" si="180"/>
         <v>counterfalsetwo3</v>
@@ -6488,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G180" s="1">
         <f t="shared" si="106"/>
@@ -6506,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="str">
         <f t="shared" si="180"/>
         <v>counterfalsetwo3</v>
@@ -6521,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G181" s="1">
         <f t="shared" si="106"/>
@@ -6539,9 +6561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -6553,10 +6575,10 @@
         <v>0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G182" s="1">
         <f t="shared" si="106"/>
@@ -6571,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="str">
         <f t="shared" ref="A183:A187" si="187">$A$182</f>
         <v>counterfalsetwo4</v>
@@ -6586,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G183" s="1">
         <f t="shared" si="106"/>
@@ -6604,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="str">
         <f t="shared" si="187"/>
         <v>counterfalsetwo4</v>
@@ -6619,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G184" s="1">
         <f t="shared" si="106"/>
@@ -6637,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="str">
         <f t="shared" si="187"/>
         <v>counterfalsetwo4</v>
@@ -6652,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G185" s="1">
         <f t="shared" si="106"/>
@@ -6670,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="str">
         <f t="shared" si="187"/>
         <v>counterfalsetwo4</v>
@@ -6685,10 +6707,10 @@
         <v>0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G186" s="1">
         <f t="shared" si="106"/>
@@ -6703,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="str">
         <f t="shared" si="187"/>
         <v>counterfalsetwo4</v>
@@ -6718,10 +6740,10 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G187" s="1">
         <f t="shared" si="106"/>
@@ -6736,9 +6758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -6750,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G188" s="1">
         <f t="shared" si="106"/>
@@ -6768,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="str">
         <f t="shared" ref="A189:A193" si="194">$A$188</f>
         <v>counterfalsetwo5</v>
@@ -6783,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G189" s="1">
         <f t="shared" si="106"/>
@@ -6801,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="str">
         <f t="shared" si="194"/>
         <v>counterfalsetwo5</v>
@@ -6816,10 +6838,10 @@
         <v>0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G190" s="1">
         <f t="shared" si="106"/>
@@ -6834,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="str">
         <f t="shared" si="194"/>
         <v>counterfalsetwo5</v>
@@ -6849,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G191" s="1">
         <f t="shared" si="106"/>
@@ -6867,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="str">
         <f t="shared" si="194"/>
         <v>counterfalsetwo5</v>
@@ -6882,10 +6904,10 @@
         <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G192" s="1">
         <f t="shared" si="106"/>
@@ -6900,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="str">
         <f t="shared" si="194"/>
         <v>counterfalsetwo5</v>
@@ -6915,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G193" s="1">
         <f t="shared" si="106"/>
@@ -6939,4 +6961,863 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99270654-E846-44AA-AA3C-E29A7B0DD75B}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>